--- a/data/dataThongtinHDTruocDCThayThe_case1.xlsx
+++ b/data/dataThongtinHDTruocDCThayThe_case1.xlsx
@@ -73,7 +73,7 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>1C22TGT</t>
+    <t>1C22TBB</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E8" activeCellId="1" sqref="B2 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/dataThongtinHDTruocDCThayThe_case1.xlsx
+++ b/data/dataThongtinHDTruocDCThayThe_case1.xlsx
@@ -395,13 +395,13 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="B2 E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
